--- a/data/trans_dic/P3A_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.08196781058485986</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.08787664534706627</v>
+        <v>0.0878766453470663</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1165989339015198</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1490871978912945</v>
+        <v>0.1483297884771161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1772110171422599</v>
+        <v>0.1767234502823725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1924827063252386</v>
+        <v>0.1891355086094263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1427208669138974</v>
+        <v>0.1408294575597996</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06081044209265801</v>
+        <v>0.05996120439467918</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0657682586303177</v>
+        <v>0.06577191761209619</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06577608255340654</v>
+        <v>0.06616348255620068</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07237465313002785</v>
+        <v>0.07290384386154977</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.103839000314994</v>
+        <v>0.1043532800497965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1175923607209902</v>
+        <v>0.1164731157229864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.126005741030276</v>
+        <v>0.1238909317916773</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1061696004601994</v>
+        <v>0.1050974909246859</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1952545091731218</v>
+        <v>0.1937325026503491</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2296091651283898</v>
+        <v>0.2300276653166726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.253727925644897</v>
+        <v>0.2492842952564933</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2044321744062386</v>
+        <v>0.2011955150347523</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08901610790147417</v>
+        <v>0.08819337787416708</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0973790753359408</v>
+        <v>0.09544452253135871</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1015128845625508</v>
+        <v>0.1024067384002598</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1052671501560395</v>
+        <v>0.105803689317819</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1306547852951874</v>
+        <v>0.1301337016411114</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1455844215491161</v>
+        <v>0.1441006036702413</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1575636079597075</v>
+        <v>0.1574062009048069</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1384938286348816</v>
+        <v>0.136639574602293</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2702493552968948</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2626596566242604</v>
+        <v>0.2626596566242605</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1914032509223434</v>
+        <v>0.1908690638945858</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2683060298369432</v>
+        <v>0.2671557597901069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3166218916720898</v>
+        <v>0.3159856586134159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2706021840608318</v>
+        <v>0.2720340379134529</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1036228460284733</v>
+        <v>0.1021042165065498</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1473622031483407</v>
+        <v>0.1485342874703186</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1830950362841884</v>
+        <v>0.1827169982137418</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2165859499777744</v>
+        <v>0.2160704776546432</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1530143708382991</v>
+        <v>0.1526440534616359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2171535779687</v>
+        <v>0.2165699275855199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2564100584615173</v>
+        <v>0.2563467183718374</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.249445372658625</v>
+        <v>0.248062033569558</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2318743818126505</v>
+        <v>0.2318553679896714</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3096795130031483</v>
+        <v>0.310370519543922</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3593632957194819</v>
+        <v>0.3608115971195245</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3124675690008359</v>
+        <v>0.3146829802496886</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1370062921914861</v>
+        <v>0.1347589119277535</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1854660304696114</v>
+        <v>0.1843679915848306</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2186621796194073</v>
+        <v>0.2197153162388903</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2488501390945831</v>
+        <v>0.2462667708550804</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1794685099593377</v>
+        <v>0.1789262271018306</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2457661713236605</v>
+        <v>0.2451246625098378</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.285124925199944</v>
+        <v>0.2855389655235424</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2761390626901031</v>
+        <v>0.2757183517838714</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.372519338272342</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.340676808896731</v>
+        <v>0.3406768088967309</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2411777927197036</v>
+        <v>0.2360968332087455</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3224591665684293</v>
+        <v>0.3214220575355483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3805455304784726</v>
+        <v>0.3794131396995177</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3421087008924635</v>
+        <v>0.3468981415003013</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2124601154124211</v>
+        <v>0.2115873146557874</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2406403656491495</v>
+        <v>0.2377290878403272</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2834246270328611</v>
+        <v>0.2823904527897894</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2736934364444832</v>
+        <v>0.2697621122030539</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2379078039080027</v>
+        <v>0.2399444304229894</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2950700998651222</v>
+        <v>0.2962803346344922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3439477760023224</v>
+        <v>0.3447593596405759</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3185011137689656</v>
+        <v>0.3155400566053249</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3209082717699502</v>
+        <v>0.3163300111144894</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4165355671548734</v>
+        <v>0.4225997078724626</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4648199315273441</v>
+        <v>0.466578696434899</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4231913197415165</v>
+        <v>0.4232019979046128</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2940198904677704</v>
+        <v>0.2948467205781402</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3254646957132862</v>
+        <v>0.3272438478849661</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3669528989028576</v>
+        <v>0.3647261191986556</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3299569123956805</v>
+        <v>0.3288725703520188</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2936784557715109</v>
+        <v>0.2974116709008585</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.357588239820145</v>
+        <v>0.3622411639427309</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.402786752127983</v>
+        <v>0.4042028539485663</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3640111778929997</v>
+        <v>0.3650414610756811</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1958365641918809</v>
+        <v>0.1952843169248216</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2593093929138754</v>
+        <v>0.2589335361711721</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3091428815334126</v>
+        <v>0.3083835049786536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.275636306764787</v>
+        <v>0.2738049765033926</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.109053060470199</v>
+        <v>0.1090973331414669</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1367354332917984</v>
+        <v>0.1363935004661492</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1735817465082898</v>
+        <v>0.1720453614996615</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2035029308059449</v>
+        <v>0.2025034165840222</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1550996863601422</v>
+        <v>0.1544414848828004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2004385410840774</v>
+        <v>0.2007107836273238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2422304865744118</v>
+        <v>0.2433344106022097</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2407499445035617</v>
+        <v>0.2404085137024622</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2271186095767112</v>
+        <v>0.2244198229764744</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2905478130128638</v>
+        <v>0.2907299706337823</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3409645119622472</v>
+        <v>0.3425464520272837</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3087146017341013</v>
+        <v>0.3063358856248025</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1315106159007011</v>
+        <v>0.1315458765563316</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1606436409784857</v>
+        <v>0.1605176923733185</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2009257813848901</v>
+        <v>0.2000203183681353</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2259613366648433</v>
+        <v>0.2261202350862289</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1728372152099309</v>
+        <v>0.1732065753526561</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2211309255492682</v>
+        <v>0.2214677653994244</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2641393021996178</v>
+        <v>0.2645277474239683</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.260823480359999</v>
+        <v>0.2617430616576679</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>153817</v>
+        <v>153035</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>172530</v>
+        <v>172055</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>144681</v>
+        <v>142165</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>82568</v>
+        <v>81474</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>79911</v>
+        <v>78795</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>87919</v>
+        <v>87924</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>65290</v>
+        <v>65674</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>59495</v>
+        <v>59930</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>243588</v>
+        <v>244794</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>271683</v>
+        <v>269097</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>219787</v>
+        <v>216098</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>148698</v>
+        <v>147196</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>201449</v>
+        <v>199878</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>223544</v>
+        <v>223951</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>190716</v>
+        <v>187376</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>118270</v>
+        <v>116397</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>116976</v>
+        <v>115895</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>130176</v>
+        <v>127590</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>100762</v>
+        <v>101649</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>86534</v>
+        <v>86975</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>306493</v>
+        <v>305270</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>336355</v>
+        <v>332927</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>274832</v>
+        <v>274557</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>193970</v>
+        <v>191373</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>323956</v>
+        <v>323052</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>526942</v>
+        <v>524682</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>655726</v>
+        <v>654408</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>603300</v>
+        <v>606493</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>164272</v>
+        <v>161865</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>258886</v>
+        <v>260945</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>363686</v>
+        <v>362935</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>470023</v>
+        <v>468905</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>501554</v>
+        <v>500340</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>807976</v>
+        <v>805804</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1040340</v>
+        <v>1040083</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1097465</v>
+        <v>1091379</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>392455</v>
+        <v>392422</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>608197</v>
+        <v>609554</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>744244</v>
+        <v>747243</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>696638</v>
+        <v>701577</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>217195</v>
+        <v>213632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>325827</v>
+        <v>323898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>434334</v>
+        <v>436426</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>540041</v>
+        <v>534435</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>588265</v>
+        <v>586488</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>914436</v>
+        <v>912050</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1156846</v>
+        <v>1158526</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1214907</v>
+        <v>1213056</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>132987</v>
+        <v>130186</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>155161</v>
+        <v>154662</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>207745</v>
+        <v>207127</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>243440</v>
+        <v>246848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>100973</v>
+        <v>100559</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>110365</v>
+        <v>109030</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>155376</v>
+        <v>154810</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>201131</v>
+        <v>198242</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>244252</v>
+        <v>246343</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>277311</v>
+        <v>278448</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>376322</v>
+        <v>377210</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>460700</v>
+        <v>456417</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>176951</v>
+        <v>174427</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>200429</v>
+        <v>203347</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>253752</v>
+        <v>254712</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>301137</v>
+        <v>301145</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>139735</v>
+        <v>140128</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>149268</v>
+        <v>150084</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>201168</v>
+        <v>199947</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>242478</v>
+        <v>241681</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>301510</v>
+        <v>305342</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>336066</v>
+        <v>340439</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>440699</v>
+        <v>442248</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>526529</v>
+        <v>528019</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>641494</v>
+        <v>639685</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>886507</v>
+        <v>885222</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1041372</v>
+        <v>1038814</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>970127</v>
+        <v>963681</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>368015</v>
+        <v>368165</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>485716</v>
+        <v>484501</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>612247</v>
+        <v>606828</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>758468</v>
+        <v>754743</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1031461</v>
+        <v>1027083</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1397247</v>
+        <v>1399145</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1670353</v>
+        <v>1677965</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1744631</v>
+        <v>1742157</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>743964</v>
+        <v>735123</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>993302</v>
+        <v>993925</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1148565</v>
+        <v>1153894</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1086549</v>
+        <v>1078177</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>443802</v>
+        <v>443921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>570643</v>
+        <v>570196</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>708693</v>
+        <v>705499</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>842172</v>
+        <v>842764</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1149421</v>
+        <v>1151877</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1541493</v>
+        <v>1543841</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1821430</v>
+        <v>1824108</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1890097</v>
+        <v>1896761</v>
       </c>
     </row>
     <row r="20">
